--- a/bootcamp_status.xlsx
+++ b/bootcamp_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnpicao\Documents\GitHub\batch3-workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62C72DE-5069-4B0B-9B45-978E05D45B48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52409FB5-3101-426E-B8B2-35825B422A3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7830" activeTab="1" xr2:uid="{8E99655B-C66B-4856-B92B-BB4477F7074E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
   <si>
     <t>SLU01_Pandas_101</t>
   </si>
@@ -755,10 +755,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD3AFDC-6715-495F-B5EE-EE3859A69F2D}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,8 +835,8 @@
       <c r="D4" t="s">
         <v>41</v>
       </c>
-      <c r="E4" t="s">
-        <v>30</v>
+      <c r="E4">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -882,8 +883,8 @@
       <c r="D7" t="s">
         <v>73</v>
       </c>
-      <c r="E7" t="s">
-        <v>30</v>
+      <c r="E7">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1064,7 +1065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -1081,7 +1082,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -1100,6 +1101,27 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E20" xr:uid="{DE074DC3-517E-4980-B4A9-970DD2247251}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="S01/SLU01"/>
+        <filter val="S01/SLU02"/>
+        <filter val="S01/SLU03"/>
+        <filter val="S01/SLU04"/>
+        <filter val="S01/SLU05"/>
+        <filter val="S01/SLU06"/>
+        <filter val="S01/SLU07"/>
+        <filter val="S01/SLU08"/>
+        <filter val="S01/SLU09"/>
+        <filter val="S01/SLU10"/>
+        <filter val="S01/SLU11"/>
+        <filter val="S01/SLU12"/>
+        <filter val="S01/SLU13"/>
+        <filter val="S01/SLU14"/>
+        <filter val="S01/SLU15"/>
+        <filter val="S01/SLU16"/>
+        <filter val="S01/SLU17"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:E20">
       <sortCondition ref="A1:A20"/>
     </sortState>

--- a/bootcamp_status.xlsx
+++ b/bootcamp_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnpicao\Documents\GitHub\batch3-workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52409FB5-3101-426E-B8B2-35825B422A3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9073C864-A2C0-48A5-83B4-7049321A69B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7830" activeTab="1" xr2:uid="{8E99655B-C66B-4856-B92B-BB4477F7074E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
   <si>
     <t>SLU01_Pandas_101</t>
   </si>
@@ -759,7 +759,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,7 +836,7 @@
         <v>41</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -900,8 +900,8 @@
       <c r="D8" t="s">
         <v>46</v>
       </c>
-      <c r="E8" t="s">
-        <v>30</v>
+      <c r="E8">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">

--- a/bootcamp_status.xlsx
+++ b/bootcamp_status.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnpicao\Documents\GitHub\batch3-workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9073C864-A2C0-48A5-83B4-7049321A69B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6B68C8-F0BB-45E9-8E7D-BA5607B7F0C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7830" activeTab="1" xr2:uid="{8E99655B-C66B-4856-B92B-BB4477F7074E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Lista" sheetId="1" r:id="rId1"/>
+    <sheet name="Evolução" sheetId="3" r:id="rId2"/>
+    <sheet name="Dúvidas" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$A$1:$E$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Evolução!$A$1:$E$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
   <si>
     <t>SLU01_Pandas_101</t>
   </si>
@@ -262,6 +263,16 @@
   </si>
   <si>
     <t>k-Nearest Neighbors</t>
+  </si>
+  <si>
+    <t>In the Hackathon are we going to have specific instruction on how to approach the problems (e.g. computing coefficients using gradient descent) or are we allowed to choose our prefered approach to each problem.</t>
+  </si>
+  <si>
+    <t>SLU09: 'import utils', 'from utils import create_dataset', 'from utils import expand_dataset, fit_and_plot_linear_regression'.
+What is utils and where can I find it.</t>
+  </si>
+  <si>
+    <t>Are we going to be provided with na environment for the hackathon?</t>
   </si>
 </sst>
 </file>
@@ -311,13 +322,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,7 +773,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A13" sqref="A13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,8 +931,8 @@
       <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
-        <v>30</v>
+      <c r="E9">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -934,8 +948,8 @@
       <c r="D10" t="s">
         <v>64</v>
       </c>
-      <c r="E10" t="s">
-        <v>30</v>
+      <c r="E10">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1128,4 +1142,37 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBCE719-414C-4569-900E-EDB2B8E5539E}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="119.28515625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/bootcamp_status.xlsx
+++ b/bootcamp_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnpicao\Documents\GitHub\batch3-workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6B68C8-F0BB-45E9-8E7D-BA5607B7F0C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4628D0F6-FDF5-4465-80E0-D573F5714F85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7830" activeTab="1" xr2:uid="{8E99655B-C66B-4856-B92B-BB4477F7074E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17550" windowHeight="7830" activeTab="1" xr2:uid="{8E99655B-C66B-4856-B92B-BB4477F7074E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="81">
   <si>
     <t>SLU01_Pandas_101</t>
   </si>
@@ -273,6 +273,12 @@
   </si>
   <si>
     <t>Are we going to be provided with na environment for the hackathon?</t>
+  </si>
+  <si>
+    <t>SLU15: What's the advantage of 'category_encoders.ordinal.OrdinalEncoder()' over Pandas categorical type?</t>
+  </si>
+  <si>
+    <t>SLU12: unanswered question.</t>
   </si>
 </sst>
 </file>
@@ -773,7 +779,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:E13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,8 +1002,8 @@
       <c r="D13" t="s">
         <v>35</v>
       </c>
-      <c r="E13" t="s">
-        <v>30</v>
+      <c r="E13">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1010,8 +1016,8 @@
       <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" t="s">
-        <v>30</v>
+      <c r="E14">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1044,8 +1050,8 @@
       <c r="D16" t="s">
         <v>38</v>
       </c>
-      <c r="E16" t="s">
-        <v>30</v>
+      <c r="E16">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1146,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBCE719-414C-4569-900E-EDB2B8E5539E}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,6 +1178,16 @@
         <v>78</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
